--- a/Development log.xlsx
+++ b/Development log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Advanced Prog with Python" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="74">
   <si>
     <t>Module number</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>IoT and Embedded Python</t>
+  </si>
+  <si>
+    <t>Speeding up your Code</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -1217,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,7 +1392,7 @@
       </c>
       <c r="J7" s="6"/>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1410,7 +1413,7 @@
       </c>
       <c r="J8" s="6"/>
       <c r="K8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1438,6 +1441,9 @@
       <c r="A10">
         <v>7</v>
       </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
       <c r="C10" t="s">
         <v>53</v>
       </c>
@@ -1449,7 +1455,7 @@
       </c>
       <c r="J10" s="6"/>
       <c r="K10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">

--- a/Development log.xlsx
+++ b/Development log.xlsx
@@ -1221,7 +1221,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,10 +1321,10 @@
         <v>18</v>
       </c>
       <c r="J4" s="6">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1347,10 +1347,10 @@
         <v>18</v>
       </c>
       <c r="J5" s="6">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1390,9 +1390,11 @@
       <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="6"/>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">

--- a/Development log.xlsx
+++ b/Development log.xlsx
@@ -1221,7 +1221,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,9 +1413,11 @@
       <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="6"/>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1436,7 +1438,7 @@
       </c>
       <c r="J9" s="6"/>
       <c r="K9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">

--- a/Development log.xlsx
+++ b/Development log.xlsx
@@ -1221,7 +1221,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,9 +1436,11 @@
       <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="6"/>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">

--- a/Development log.xlsx
+++ b/Development log.xlsx
@@ -1221,7 +1221,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="J10" s="6"/>
       <c r="K10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
